--- a/Analysis/Full links.xlsx
+++ b/Analysis/Full links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binhd\Documents\analyticsariel\Scraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binhd\Documents\homebrain-innovations\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F474BD63-3A5C-4182-85B3-0331B47E9062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE747C9-5765-424B-A974-4A68C1BD5335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4817379C-99A7-43CF-AE36-1A8A0EAAB9AF}"/>
   </bookViews>
@@ -10399,11 +10399,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BF2F74-1995-4BBD-932B-DB31BDFB0243}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E2917"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10426,7 +10425,7 @@
         <v>'https://www.realtor.com/rentals/details/4975-Duneville-St_Las-Vegas_NV_89118_M22095-63689',</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
@@ -10445,7 +10444,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>88</v>
       </c>
@@ -10494,7 +10493,7 @@
         <v>'https://www.realtor.com/rentals/details/1300-S-Arlington-St-Apt-214_Las-Vegas_NV_89104_M27187-22210?ex=2955701950&amp;listing_status=rental',</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>91</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -10532,7 +10531,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>93</v>
       </c>
@@ -10551,7 +10550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -10570,7 +10569,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -10589,7 +10588,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>96</v>
       </c>
@@ -10608,7 +10607,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>97</v>
       </c>
@@ -10627,7 +10626,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>98</v>
       </c>
@@ -10646,7 +10645,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>99</v>
       </c>
@@ -10665,7 +10664,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>100</v>
       </c>
@@ -10699,7 +10698,7 @@
         <v>'https://www.realtor.com/rentals/details/4480-Meadows-Ln_Las-Vegas_NV_89107_M94890-47175',</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>102</v>
       </c>
@@ -10718,7 +10717,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>103</v>
       </c>
@@ -10737,7 +10736,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>104</v>
       </c>
@@ -10756,7 +10755,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>105</v>
       </c>
@@ -10775,7 +10774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>106</v>
       </c>
@@ -10809,7 +10808,7 @@
         <v>'https://www.realtor.com/rentals/details/5253-Aurora-Beam-Ave_Las-Vegas_NV_89122_M26155-35261',</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>108</v>
       </c>
@@ -11113,7 +11112,7 @@
         <v>'https://www.realtor.com/rentals/details/9825-Silver-Chaps-Ct_Las-Vegas_NV_89183_M26658-62656',</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>128</v>
       </c>
@@ -11147,7 +11146,7 @@
         <v>'https://www.realtor.com/rentals/details/3741-Rolling-Cloud-Dr_Las-Vegas_NV_89115_M24460-81426',</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>130</v>
       </c>
@@ -11211,7 +11210,7 @@
         <v>'https://www.realtor.com/rentals/details/7549-Brisa-Del-Mar-Ave_Las-Vegas_NV_89179_M23293-15215',</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>134</v>
       </c>
@@ -11230,7 +11229,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>135</v>
       </c>
@@ -53710,7 +53709,7 @@
         <v>2779</v>
       </c>
       <c r="D2881" s="2" t="str">
-        <f t="shared" ref="D2881:D2944" si="45">B2881&amp;A2881&amp;B2881&amp;C2881</f>
+        <f t="shared" ref="D2881:D2917" si="45">B2881&amp;A2881&amp;B2881&amp;C2881</f>
         <v>'https://www.realtor.com/rentals/details/8261-Oliver-Twist-Ln_Las-Vegas_NV_89113_M10510-50707',</v>
       </c>
     </row>
@@ -54255,13 +54254,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2917" xr:uid="{C7BF2F74-1995-4BBD-932B-DB31BDFB0243}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="#N/A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E2917" xr:uid="{C7BF2F74-1995-4BBD-932B-DB31BDFB0243}"/>
   <conditionalFormatting sqref="D4611:D1048576 D1:D2917">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
